--- a/biology/Zoologie/Dallasaurus/Dallasaurus.xlsx
+++ b/biology/Zoologie/Dallasaurus/Dallasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dallasaurus turneri
 Dallasaurus est un genre fossile de mosasauridés qui a vécu au Crétacé supérieur, au Turonien, il y a environ 92 Ma aux États-Unis. Selon Paleobiology Database en 2023, ce genre est resté monotypique, et la seule espèce est Dallasaurus turneri.
@@ -512,18 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Dallasaurus et l'espèce Dallasaurus turneri sont décrits par les paléontologues américains Gorden L. Bell et Michael J. Polcyn en 2005[1],[2].
-Étymologie
-Le protonyme Dallasaurus signifie « lézard de Dallas ».
-L'épithète spécifique latine turneri signifie « tourneur ».
-Sous-famille
-Le genre Dallasaurus et l'espèce Dallasaurus turneri sont classés dans la sous-famille des Mosasaurinae par Bell et Polcyn en 2005[1] et repris par Driscoll et al. en 2019[3],[2].
-Fossile
-Selon Paleobiology Database en 2023, un seul holotype est référencé TMM43209 du Crétacé, du Turonien moyen, venant de la formation calcaire de Kamp Ranch, sur Cedar Hill, dans le comté de Dallas[2].
-Cladogramme Mosasaurinae
-Le cladogramme suivant est modifié à partir d'un arbre de crédibilité de clade maximum déduit par une analyse bayésienne dans la plus récente analyse phylogénétique majeure de la sous-famille des Mosasaurinae par Madzia &amp; Cau (2017)[4], qui est auto-décrit comme un raffinement d'une étude plus large de Simões et al. (2017)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dallasaurus et l'espèce Dallasaurus turneri sont décrits par les paléontologues américains Gorden L. Bell et Michael J. Polcyn en 2005,.
 </t>
         </is>
       </c>
@@ -549,16 +554,237 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le protonyme Dallasaurus signifie « lézard de Dallas ».
+L'épithète spécifique latine turneri signifie « tourneur ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dallasaurus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dallasaurus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-famille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dallasaurus et l'espèce Dallasaurus turneri sont classés dans la sous-famille des Mosasaurinae par Bell et Polcyn en 2005 et repris par Driscoll et al. en 2019,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dallasaurus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dallasaurus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fossile</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, un seul holotype est référencé TMM43209 du Crétacé, du Turonien moyen, venant de la formation calcaire de Kamp Ranch, sur Cedar Hill, dans le comté de Dallas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dallasaurus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dallasaurus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cladogramme Mosasaurinae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant est modifié à partir d'un arbre de crédibilité de clade maximum déduit par une analyse bayésienne dans la plus récente analyse phylogénétique majeure de la sous-famille des Mosasaurinae par Madzia &amp; Cau (2017), qui est auto-décrit comme un raffinement d'une étude plus large de Simões et al. (2017) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dallasaurus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dallasaurus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Dallasaurus mesurait environ 1 mètre de long et pesait environ 10 kilos. Il était le plus petit des mosasauridés et devait être la proie de nombreux prédateurs.
-Alimentation
-Dallasaurus était un carnivore.
-Habitat
-Dallasaurus vivait dans les rivières et les lacs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dallasaurus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dallasaurus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dallasaurus était un carnivore.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dallasaurus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dallasaurus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dallasaurus vivait dans les rivières et les lacs.
 </t>
         </is>
       </c>
